--- a/Matrice Afidium copie.xlsx
+++ b/Matrice Afidium copie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elodiedeol/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6A3CF7-8365-0541-8C25-9D8C786529C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA5471E-1E07-5E46-A8E3-713D9A5BCEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{5391B5A4-C86E-744B-B137-0A66F82BB9B7}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId6"/>
+    <pivotCache cacheId="11" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="98">
   <si>
     <t>Erwann</t>
   </si>
@@ -683,7 +683,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77756CFB-F0A4-7342-9F3E-1F34426D79D3}" name="Tableau croisé dynamique2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Qui ?">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77756CFB-F0A4-7342-9F3E-1F34426D79D3}" name="Tableau croisé dynamique2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Qui ?">
   <location ref="A4:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -3781,8 +3781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BDC190-877A-EA4E-8283-8E88288752F6}">
   <dimension ref="A1:BR12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BO16" sqref="BO16"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BI9" sqref="BI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5281,9 +5281,7 @@
       <c r="Q8" s="8">
         <v>1.3</v>
       </c>
-      <c r="R8" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="R8" s="8"/>
       <c r="S8" s="8">
         <v>3.2</v>
       </c>
@@ -5410,8 +5408,8 @@
       <c r="BH8" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BI8" s="8" t="s">
-        <v>27</v>
+      <c r="BI8" s="8">
+        <v>1</v>
       </c>
       <c r="BJ8" s="8">
         <v>2.2000000000000002</v>
